--- a/HouseFlipper/data.xlsx
+++ b/HouseFlipper/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\HouseFlipper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF93572-9E01-4D01-A4DA-BC1F78D83B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C4EAE4-9D39-47B4-BC70-2ED92742EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="204">
   <si>
     <t>Num Already Done</t>
   </si>
@@ -188,12 +188,6 @@
     <t>"Bra off, party on!"  Earned by selling a house to Jimmy Traitor. The "Home Admin-Legends" house has most of the amenities he wants. Remove the kitchen and turn it into a home theater. Don't forget the coffee table(s).</t>
   </si>
   <si>
-    <t>"It’s business. Leave your feelings at the door."  Earned by selling a house to Jack Tarinton. The "Hucksters House" is best set up for this. Clean it, make 2 bedrooms, 2 couches, and cheap furniture.</t>
-  </si>
-  <si>
-    <t>"Family isn’t just an important thing, it’s everything."  Earned by selling a house to the Jonson Family. When working on this achievement, you must not have a complete kitchen or the Smoth couple will buy it EVERY TIME. The best way to do this is to use a bathroom sink instead of kitchen one and use the range tops instead of a full stove.</t>
-  </si>
-  <si>
     <t>"Age is just a number. Live life fully, no matter how old you are.."  Earned by selling a house to the Jantart Family. The "Camping bungalow" home is best suited for their needs. Clean the home and install furnaces in every room. Furniture needs to be classic wooden or upholstered and retro looking. They also like rugs or carpet.</t>
   </si>
   <si>
@@ -257,12 +251,6 @@
     <t>"Blue flower, red thorns..."  Earned by getting 5 stars in "plant selection" during a Garden Competition.</t>
   </si>
   <si>
-    <t>"Didn’t you forget about a few flowers between this sofa and carousel?"  Earned by getting 5 stars in "equipment" during a Garden Competition.</t>
-  </si>
-  <si>
-    <t>"You can’t hide from my mover!"  Earned by using your new tools in Garden Flipper DLC</t>
-  </si>
-  <si>
     <t>"I feel this gardener aura inside of me."  Earned by maxing out skills for Garden Flipper DLC</t>
   </si>
   <si>
@@ -353,24 +341,12 @@
     <t>You are too creative!</t>
   </si>
   <si>
-    <t>"Now, who’s in for a pool party?"  Place in-door pool first time.</t>
-  </si>
-  <si>
-    <t>"Replace 10 windows"  na</t>
-  </si>
-  <si>
-    <t>"One man’s trash is another man’s treasure"  Fix a furniture first time.</t>
-  </si>
-  <si>
     <t>"All it takes is a good smack with a hammer"  Earned by 'fixing' the yacht wheel (second floor) by hitting it with the hammer</t>
   </si>
   <si>
     <t>"Take a picture of the city from the Cliff House"  Earned by taking a picture of the city, as stated, from the Cliff House. Best location to earn the achievement seems to be by the pool.</t>
   </si>
   <si>
-    <t>"Finish all jobs in Moonrise Bay"  na</t>
-  </si>
-  <si>
     <t>"Purchase one of the houses from Luxury DLC"  na</t>
   </si>
   <si>
@@ -431,9 +407,6 @@
     <t>"It's hard to get a good photo when they move around so quickly."  Take a picture of your pet using the tablet</t>
   </si>
   <si>
-    <t>"Is there an animal you haven’t got?"  Purchase at least one of each type of farm animal.</t>
-  </si>
-  <si>
     <t>"Making photos, watering, spraying… Everything on the fly!"  Get all three of the perks associated with the "High Tech Farmer" branch of the farming skill tree.</t>
   </si>
   <si>
@@ -557,9 +530,6 @@
     <t>Captain Hook</t>
   </si>
   <si>
-    <t>Don’t hold your horses</t>
-  </si>
-  <si>
     <t>Hardworking farmer</t>
   </si>
   <si>
@@ -642,6 +612,42 @@
   </si>
   <si>
     <t>"Sell 10 houses"  Buy and sell 10 houses. You don't have to renovate them for this achievement.</t>
+  </si>
+  <si>
+    <t>"Now, who's in for a pool party?"  Place in-door pool first time.</t>
+  </si>
+  <si>
+    <t>"Is there an animal you haven't got?"  Purchase at least one of each type of farm animal.</t>
+  </si>
+  <si>
+    <t>"One man's trash is another man's treasure"  Fix a furniture first time.</t>
+  </si>
+  <si>
+    <t>"It's business. Leave your feelings at the door."  Earned by selling a house to Jack Tarinton. The "Hucksters House" is best set up for this. Clean it, make 2 bedrooms, 2 couches, and cheap furniture.</t>
+  </si>
+  <si>
+    <t>"Didn't you forget about a few flowers between this sofa and carousel?"  Earned by getting 5 stars in "equipment" during a Garden Competition.</t>
+  </si>
+  <si>
+    <t>"Family isn't just an important thing, it's everything."  Earned by selling a house to the Jonson Family. When working on this achievement, you must not have a complete kitchen or the Smoth couple will buy it EVERY TIME. The best way to do this is to use a bathroom sink instead of kitchen one and use the range tops instead of a full stove.</t>
+  </si>
+  <si>
+    <t>"You can't hide from my mover!"  Earned by using your new tools in Garden Flipper DLC</t>
+  </si>
+  <si>
+    <t>Don't hold your horses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Replace 10 windows" </t>
+  </si>
+  <si>
+    <t>"Finish all jobs in Moonrise Bay"</t>
+  </si>
+  <si>
+    <t>"Hope you're not afraid of heights!"</t>
+  </si>
+  <si>
+    <t>"Purchase one of the houses from Luxury DLC"</t>
   </si>
 </sst>
 </file>
@@ -1034,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>2</v>
@@ -1106,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>2</v>
@@ -1118,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>2</v>
@@ -1130,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>2</v>
@@ -1142,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>2</v>
@@ -1183,55 +1189,55 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="V2" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="W2" s="2">
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Z2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AA2" s="2">
         <v>1</v>
       </c>
       <c r="AC2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AD2" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="AE2" s="2">
         <v>1</v>
       </c>
       <c r="AG2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="AH2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -1257,61 +1263,61 @@
         <v>41</v>
       </c>
       <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
-      </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="S3" s="2">
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="V3" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="W3" s="2">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Z3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AA3" s="2">
         <v>1</v>
       </c>
       <c r="AC3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AD3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AE3" s="2">
         <v>1</v>
       </c>
       <c r="AG3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="AH3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -1343,55 +1349,55 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="S4" s="2">
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="V4" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="W4" s="2">
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Z4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AA4" s="2">
         <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AD4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AE4" s="2">
         <v>1</v>
       </c>
       <c r="AG4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AH4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -1399,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1414,55 +1420,55 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="S5" s="2">
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="V5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="W5" s="2">
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="Z5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AA5" s="2">
         <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AD5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AE5" s="2">
         <v>1</v>
       </c>
       <c r="AG5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AH5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1470,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1485,55 +1491,55 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="S6" s="2">
         <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="V6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W6" s="2">
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Z6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AA6" s="2">
         <v>1</v>
       </c>
       <c r="AC6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AD6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AE6" s="2">
         <v>1</v>
       </c>
       <c r="AG6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AH6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -1541,7 +1547,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1550,61 +1556,61 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="S7" s="2">
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="V7" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="W7" s="2">
         <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Z7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AA7" s="2">
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AD7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="AE7" s="2">
         <v>1</v>
       </c>
       <c r="AG7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AH7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -1621,61 +1627,61 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="R8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="S8" s="2">
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="V8" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="W8" s="2">
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="Z8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AA8" s="2">
         <v>1</v>
       </c>
       <c r="AC8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AD8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AE8" s="2">
         <v>1</v>
       </c>
       <c r="AG8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AH8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -1692,61 +1698,61 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="S9" s="2">
         <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="V9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="W9" s="2">
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="Z9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA9" s="2">
         <v>1</v>
       </c>
       <c r="AC9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AD9" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="AE9" s="2">
         <v>1</v>
       </c>
       <c r="AG9" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AH9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -1763,61 +1769,61 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S10" s="2">
         <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="V10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="W10" s="2">
         <v>1</v>
       </c>
       <c r="Y10" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Z10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AA10" s="2">
         <v>1</v>
       </c>
       <c r="AC10" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="AD10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AE10" s="2">
         <v>1</v>
       </c>
       <c r="AG10" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AH10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -1834,61 +1840,61 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="R11" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S11" s="2">
         <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="V11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="W11" s="2">
         <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="Z11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AA11" s="2">
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AD11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AE11" s="2">
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AH11" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -1902,46 +1908,46 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="S12" s="2">
         <v>1</v>
       </c>
       <c r="U12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="V12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="W12" s="2">
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Z12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AA12" s="2">
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AD12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AE12" s="2">
         <v>1</v>
@@ -1958,37 +1964,37 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="S13" s="2">
         <v>1</v>
       </c>
       <c r="Y13" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Z13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AA13" s="2">
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="AD13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AE13" s="2">
         <v>1</v>

--- a/HouseFlipper/data.xlsx
+++ b/HouseFlipper/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\HouseFlipper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C4EAE4-9D39-47B4-BC70-2ED92742EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628B6FD2-3690-4324-AB98-F3F949ECEF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="202">
   <si>
     <t>Num Already Done</t>
   </si>
@@ -347,9 +347,6 @@
     <t>"Take a picture of the city from the Cliff House"  Earned by taking a picture of the city, as stated, from the Cliff House. Best location to earn the achievement seems to be by the pool.</t>
   </si>
   <si>
-    <t>"Purchase one of the houses from Luxury DLC"  na</t>
-  </si>
-  <si>
     <t>"The next step is to hire a butler"  Move your office to one of house of Luxury DLC.</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
   </si>
   <si>
     <t>"Finally, nothing limits your imagination!"  Buy one of the land parcel properties (Like A Painting, Spruce Hideout, and Country Idyll) and make it your office.</t>
-  </si>
-  <si>
-    <t>"Hope you're not afraid of heights!"  na</t>
   </si>
   <si>
     <t>"Ride like the wind!"  Jump with a horse over an obstacle</t>
@@ -677,12 +671,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -697,13 +697,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>2</v>
@@ -1136,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>2</v>
@@ -1148,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>2</v>
@@ -1170,7 +1171,7 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
@@ -1179,6 +1180,9 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
       <c r="I2" t="s">
         <v>40</v>
       </c>
@@ -1201,7 +1205,7 @@
         <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
@@ -1210,34 +1214,37 @@
         <v>90</v>
       </c>
       <c r="V2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W2" s="2">
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA2" s="2">
         <v>1</v>
       </c>
       <c r="AC2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AD2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AE2" s="2">
         <v>1</v>
       </c>
       <c r="AG2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AH2" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -1268,7 +1275,7 @@
       <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N3" t="s">
@@ -1277,11 +1284,14 @@
       <c r="O3" s="2">
         <v>1</v>
       </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
       <c r="Q3" t="s">
         <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S3" s="2">
         <v>1</v>
@@ -1290,34 +1300,37 @@
         <v>91</v>
       </c>
       <c r="V3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W3" s="2">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Z3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA3" s="2">
         <v>1</v>
       </c>
       <c r="AC3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AD3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE3" s="2">
         <v>1</v>
       </c>
       <c r="AG3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AH3" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -1361,7 +1374,7 @@
         <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S4" s="2">
         <v>1</v>
@@ -1370,47 +1383,53 @@
         <v>92</v>
       </c>
       <c r="V4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="W4" s="2">
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA4" s="2">
         <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AD4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE4" s="2">
         <v>1</v>
       </c>
       <c r="AG4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AH4" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F5" t="s">
@@ -1419,6 +1438,9 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="M5" t="s">
         <v>57</v>
       </c>
@@ -1432,7 +1454,7 @@
         <v>80</v>
       </c>
       <c r="R5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S5" s="2">
         <v>1</v>
@@ -1447,28 +1469,31 @@
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Z5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA5" s="2">
         <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AD5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE5" s="2">
         <v>1</v>
       </c>
       <c r="AG5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AH5" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,12 +1501,12 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
@@ -1490,6 +1515,9 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="M6" t="s">
         <v>58</v>
       </c>
@@ -1503,7 +1531,7 @@
         <v>81</v>
       </c>
       <c r="R6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S6" s="2">
         <v>1</v>
@@ -1518,28 +1546,31 @@
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Z6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA6" s="2">
         <v>1</v>
       </c>
       <c r="AC6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AD6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE6" s="2">
         <v>1</v>
       </c>
       <c r="AG6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AH6" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -1547,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1556,7 +1587,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1565,7 +1596,7 @@
         <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
@@ -1574,7 +1605,7 @@
         <v>82</v>
       </c>
       <c r="R7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S7" s="2">
         <v>1</v>
@@ -1583,34 +1614,37 @@
         <v>95</v>
       </c>
       <c r="V7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W7" s="2">
         <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Z7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA7" s="2">
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AD7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE7" s="2">
         <v>1</v>
       </c>
       <c r="AG7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH7" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -1627,25 +1661,28 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="N8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
         <v>83</v>
       </c>
       <c r="R8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S8" s="2">
         <v>1</v>
@@ -1654,34 +1691,37 @@
         <v>96</v>
       </c>
       <c r="V8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W8" s="2">
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA8" s="2">
         <v>1</v>
       </c>
       <c r="AC8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AD8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE8" s="2">
         <v>1</v>
       </c>
       <c r="AG8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AH8" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -1694,7 +1734,7 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F9" t="s">
@@ -1703,6 +1743,9 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="M9" t="s">
         <v>61</v>
       </c>
@@ -1716,7 +1759,7 @@
         <v>84</v>
       </c>
       <c r="R9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S9" s="2">
         <v>1</v>
@@ -1725,34 +1768,37 @@
         <v>97</v>
       </c>
       <c r="V9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W9" s="2">
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Z9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA9" s="2">
         <v>1</v>
       </c>
       <c r="AC9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AE9" s="2">
         <v>1</v>
       </c>
       <c r="AG9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AH9" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -1765,7 +1811,7 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F10" t="s">
@@ -1774,6 +1820,9 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
       <c r="M10" t="s">
         <v>62</v>
       </c>
@@ -1787,43 +1836,49 @@
         <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S10" s="2">
         <v>1</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="4" t="s">
         <v>98</v>
       </c>
       <c r="V10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W10" s="2">
         <v>1</v>
       </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
       <c r="Y10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA10" s="2">
         <v>1</v>
       </c>
       <c r="AC10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE10" s="2">
         <v>1</v>
       </c>
       <c r="AG10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AH10" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -1836,7 +1891,7 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F11" t="s">
@@ -1845,6 +1900,9 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
       <c r="M11" t="s">
         <v>63</v>
       </c>
@@ -1858,43 +1916,49 @@
         <v>86</v>
       </c>
       <c r="R11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S11" s="2">
         <v>1</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="4" t="s">
         <v>99</v>
       </c>
       <c r="V11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W11" s="2">
         <v>1</v>
       </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
       <c r="Y11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA11" s="2">
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AE11" s="2">
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AH11" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -1907,7 +1971,7 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="N12" t="s">
@@ -1916,11 +1980,14 @@
       <c r="O12" s="2">
         <v>1</v>
       </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
       <c r="Q12" t="s">
         <v>87</v>
       </c>
       <c r="R12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S12" s="2">
         <v>1</v>
@@ -1929,25 +1996,25 @@
         <v>100</v>
       </c>
       <c r="V12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W12" s="2">
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA12" s="2">
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AD12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AE12" s="2">
         <v>1</v>
@@ -1976,25 +2043,25 @@
         <v>88</v>
       </c>
       <c r="R13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S13" s="2">
         <v>1</v>
       </c>
       <c r="Y13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA13" s="2">
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AD13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AE13" s="2">
         <v>1</v>
